--- a/pred_ohlcv/54_21/2020-01-24 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XEM ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-155600.02982621</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-205844.82172621</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-111866.64322621</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-112480.01482621</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-79346.83492621001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-143837.05652621</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-106644.92501903</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-103134.16301903</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-102576.75421903</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-93992.96840944001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-258949.91380944</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6768.176709440013</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-148126.52535409</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-138126.52535409</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-119005.59245409</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-24278.73725409001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1348.14395409001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6228.48274590999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>166731.58938534</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>220830.60439458</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>204946.74899458</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>211429.45729458</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>216061.65020702</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>200763.98230702</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>244271.25170702</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>253330.73811613</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>272978.45071613</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>170704.36461613</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>197787.09361613</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>196628.22511613</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-16303.53078387002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-153428.20248387</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-389295.5933790301</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-417532.7959790301</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-183270.6298197201</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-402180.44451972</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-401853.00071972</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-539977.3932197199</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-548275.5426197198</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 XEM ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-155600.02982621</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-205844.82172621</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-111866.64322621</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-112480.01482621</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-79346.83492621001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-143837.05652621</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-106644.92501903</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-103134.16301903</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-102576.75421903</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-93992.96840944001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-258949.91380944</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6768.176709440013</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-148126.52535409</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-138126.52535409</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-119005.59245409</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-24278.73725409001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1348.14395409001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6228.48274590999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>86893.63264395998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>107694.66958534</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>92918.59708533998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>93650.61048533997</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>82731.24348533998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>176731.58938534</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>166731.58938534</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>163398.03262437</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>160299.01100702</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>160317.01100702</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>160317.01100702</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>149507.30340702</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>210690.23970702</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>220830.60439458</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>204946.74899458</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>211429.45729458</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>216061.65020702</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>200763.98230702</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>244271.25170702</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>253330.73811613</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>272978.45071613</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>170704.36461613</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>197787.09361613</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>196628.22511613</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-16303.53078387002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-153428.20248387</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-199881.59188387</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-389295.5933790301</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-417532.7959790301</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-183270.6298197201</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-402180.44451972</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-401853.00071972</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-548275.5426197198</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-478476.0541098198</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
